--- a/medicine/Médecine vétérinaire/Rhinopneumonie/Rhinopneumonie.xlsx
+++ b/medicine/Médecine vétérinaire/Rhinopneumonie/Rhinopneumonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rhinopneumonie est une maladie, qui touche le plus généralement les équidés, comme les chevaux. Elle connaît trois formes : respiratoire, nerveuse ou abortive. Elle est causée par deux virus, EHV-1 (équine herpes virus-1) et EHV-4. Elle se transmet par contact, en particulier des sécrétions respiratoires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rhinopneumonie est une maladie, qui touche le plus généralement les équidés, comme les chevaux. Elle connaît trois formes : respiratoire, nerveuse ou abortive. Elle est causée par deux virus, EHV-1 (équine herpes virus-1) et EHV-4. Elle se transmet par contact, en particulier des sécrétions respiratoires.
 Le virus peut rester latent après la transmission et se déclarer après de fortes émotions, dont le stress.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette maladie est contagieuse pour les équidés, elle se transmet par : 
 contacte directe ou indirecte.</t>
@@ -543,7 +557,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La rhinopneumonie comprends trois formes ayant des symptômes spéciaux.
 </t>
@@ -574,7 +590,9 @@
           <t>Moyens de prévention</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il est possible de vacciner les équidés, d'ailleurs pour certaines catégories de compétition, ce vaccin est obligatoire.
 Ensuite, en cas de suspicion, il faut mettre en place des règles de biosécurité qui sont primordiales pour éviter l'extension de la maladie. Elles sont les suivantes : 
